--- a/CostFunction/Ergebnisse.xlsx
+++ b/CostFunction/Ergebnisse.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>n</t>
   </si>
@@ -73,6 +73,18 @@
   </si>
   <si>
     <t>0.7941</t>
+  </si>
+  <si>
+    <t>0.9906</t>
+  </si>
+  <si>
+    <t>0.0001</t>
+  </si>
+  <si>
+    <t>keine minimum distanz mehr</t>
+  </si>
+  <si>
+    <t>0.5122</t>
   </si>
 </sst>
 </file>
@@ -404,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -416,7 +428,7 @@
     <col min="9" max="9" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -445,7 +457,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>250</v>
       </c>
@@ -474,7 +486,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>50</v>
       </c>
@@ -503,7 +515,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>50</v>
       </c>
@@ -532,7 +544,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>250</v>
       </c>
@@ -561,7 +573,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>704</v>
       </c>
@@ -590,7 +602,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>704</v>
       </c>
@@ -619,7 +631,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>100</v>
       </c>
@@ -646,6 +658,80 @@
       </c>
       <c r="I8" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>100</v>
+      </c>
+      <c r="B9">
+        <v>9197</v>
+      </c>
+      <c r="C9">
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>197</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>256</v>
+      </c>
+      <c r="I9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>704</v>
+      </c>
+      <c r="B10">
+        <v>8697</v>
+      </c>
+      <c r="C10">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <v>197</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="C11">
+        <v>23</v>
+      </c>
+      <c r="D11">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>704</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>16</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/CostFunction/Ergebnisse.xlsx
+++ b/CostFunction/Ergebnisse.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
   <si>
     <t>n</t>
   </si>
@@ -85,6 +85,36 @@
   </si>
   <si>
     <t>0.5122</t>
+  </si>
+  <si>
+    <t>gewichtung 60/40, keine clustering</t>
+  </si>
+  <si>
+    <t>0.6232</t>
+  </si>
+  <si>
+    <t>w_p</t>
+  </si>
+  <si>
+    <t>w_w</t>
+  </si>
+  <si>
+    <t>bug</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>0.8928</t>
+  </si>
+  <si>
+    <t>0.0172</t>
+  </si>
+  <si>
+    <t>radial sigma increase</t>
   </si>
 </sst>
 </file>
@@ -416,19 +446,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" customWidth="1"/>
+    <col min="13" max="13" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -454,10 +485,19 @@
         <v>10</v>
       </c>
       <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>250</v>
       </c>
@@ -482,11 +522,11 @@
       <c r="H2">
         <v>2</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>50</v>
       </c>
@@ -511,11 +551,11 @@
       <c r="H3">
         <v>2</v>
       </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>50</v>
       </c>
@@ -540,11 +580,11 @@
       <c r="H4">
         <v>2</v>
       </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>250</v>
       </c>
@@ -569,11 +609,11 @@
       <c r="H5">
         <v>2</v>
       </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>704</v>
       </c>
@@ -598,11 +638,11 @@
       <c r="H6">
         <v>2</v>
       </c>
-      <c r="I6" t="s">
+      <c r="L6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>704</v>
       </c>
@@ -627,11 +667,11 @@
       <c r="H7">
         <v>256</v>
       </c>
-      <c r="I7" t="s">
+      <c r="L7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>100</v>
       </c>
@@ -656,11 +696,11 @@
       <c r="H8">
         <v>256</v>
       </c>
-      <c r="I8" t="s">
+      <c r="L8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>100</v>
       </c>
@@ -685,11 +725,11 @@
       <c r="H9">
         <v>256</v>
       </c>
-      <c r="I9" t="s">
+      <c r="L9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>704</v>
       </c>
@@ -709,7 +749,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:13">
       <c r="C11">
         <v>23</v>
       </c>
@@ -717,7 +757,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>704</v>
       </c>
@@ -730,8 +770,136 @@
       <c r="H12">
         <v>16</v>
       </c>
-      <c r="J12">
+      <c r="M12">
         <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13">
+        <v>25</v>
+      </c>
+      <c r="B13">
+        <v>5143</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>143</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>60</v>
+      </c>
+      <c r="J13">
+        <v>40</v>
+      </c>
+      <c r="K13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14">
+        <v>25</v>
+      </c>
+      <c r="B14">
+        <v>5143</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>143</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>99</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15">
+        <v>25</v>
+      </c>
+      <c r="B15">
+        <v>8179</v>
+      </c>
+      <c r="C15">
+        <v>16</v>
+      </c>
+      <c r="D15">
+        <v>197</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>60</v>
+      </c>
+      <c r="J15">
+        <v>40</v>
+      </c>
+      <c r="K15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16">
+        <v>25</v>
+      </c>
+      <c r="I16">
+        <v>60</v>
+      </c>
+      <c r="J16">
+        <v>40</v>
+      </c>
+      <c r="K16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/CostFunction/Ergebnisse.xlsx
+++ b/CostFunction/Ergebnisse.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="38">
   <si>
     <t>n</t>
   </si>
@@ -115,6 +115,21 @@
   </si>
   <si>
     <t>radial sigma increase</t>
+  </si>
+  <si>
+    <t>Sensor</t>
+  </si>
+  <si>
+    <t>O3D</t>
+  </si>
+  <si>
+    <t>Mesa</t>
+  </si>
+  <si>
+    <t>0.9201</t>
+  </si>
+  <si>
+    <t>0.0126</t>
   </si>
 </sst>
 </file>
@@ -446,20 +461,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" customWidth="1"/>
-    <col min="13" max="13" width="17.140625" customWidth="1"/>
+    <col min="13" max="13" width="21.7109375" customWidth="1"/>
+    <col min="14" max="14" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -494,10 +509,13 @@
         <v>27</v>
       </c>
       <c r="L1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>250</v>
       </c>
@@ -523,10 +541,13 @@
         <v>2</v>
       </c>
       <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>50</v>
       </c>
@@ -552,10 +573,13 @@
         <v>2</v>
       </c>
       <c r="L3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>50</v>
       </c>
@@ -581,10 +605,13 @@
         <v>2</v>
       </c>
       <c r="L4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>250</v>
       </c>
@@ -610,10 +637,13 @@
         <v>2</v>
       </c>
       <c r="L5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>704</v>
       </c>
@@ -639,10 +669,13 @@
         <v>2</v>
       </c>
       <c r="L6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>704</v>
       </c>
@@ -668,10 +701,13 @@
         <v>256</v>
       </c>
       <c r="L7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>100</v>
       </c>
@@ -697,10 +733,13 @@
         <v>256</v>
       </c>
       <c r="L8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>100</v>
       </c>
@@ -726,10 +765,13 @@
         <v>256</v>
       </c>
       <c r="L9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>704</v>
       </c>
@@ -748,16 +790,22 @@
       <c r="F10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="L10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="C11">
         <v>23</v>
       </c>
       <c r="D11">
         <v>198</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="L11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>704</v>
       </c>
@@ -770,11 +818,14 @@
       <c r="H12">
         <v>16</v>
       </c>
-      <c r="M12">
+      <c r="L12" t="s">
+        <v>34</v>
+      </c>
+      <c r="N12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>25</v>
       </c>
@@ -809,10 +860,13 @@
         <v>28</v>
       </c>
       <c r="L13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>25</v>
       </c>
@@ -847,10 +901,13 @@
         <v>28</v>
       </c>
       <c r="L14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>25</v>
       </c>
@@ -884,8 +941,11 @@
       <c r="K15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="L15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>25</v>
       </c>
@@ -899,7 +959,33 @@
         <v>29</v>
       </c>
       <c r="L16" t="s">
+        <v>34</v>
+      </c>
+      <c r="M16" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>197</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>197</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" t="s">
+        <v>37</v>
+      </c>
+      <c r="L17" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
